--- a/src/data/leadership/directors_spring19.xlsx
+++ b/src/data/leadership/directors_spring19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/leadership/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245091FB-4D15-BA45-BF37-18926D0AFCB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA96489-93F7-8C46-989F-5F6CDFBF5EFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="7900" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="23160" yWindow="2760" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2DE730-9C1E-3843-9F88-00F2CA5F5D49}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="258" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
